--- a/cache/cars.xlsx
+++ b/cache/cars.xlsx
@@ -478,7 +478,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -490,13 +490,13 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2">
         <v>1000000</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -508,10 +508,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1616433476.512068</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -520,10 +520,10 @@
         <v>18</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -531,7 +531,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
@@ -576,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -584,7 +584,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -637,7 +637,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -690,7 +690,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -735,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -743,7 +743,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -796,7 +796,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -849,7 +849,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
@@ -894,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -902,10 +902,10 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -955,7 +955,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>20</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -1114,7 +1114,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -1167,7 +1167,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -1220,7 +1220,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -1273,7 +1273,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
@@ -1318,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -1326,7 +1326,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -1379,7 +1379,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -1432,10 +1432,10 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
         <v>18</v>
@@ -1477,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -1485,7 +1485,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -1538,7 +1538,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
@@ -1583,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q22">
         <v>0</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
@@ -1636,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -1644,7 +1644,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>21</v>
@@ -1689,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -1697,7 +1697,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
         <v>21</v>
@@ -1742,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -1750,7 +1750,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
         <v>21</v>
@@ -1795,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q26">
         <v>0</v>
@@ -1803,7 +1803,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
         <v>21</v>
@@ -1848,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
         <v>21</v>
@@ -1901,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -1909,7 +1909,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
         <v>21</v>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -1962,10 +1962,10 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C30" t="s">
         <v>18</v>
@@ -2001,13 +2001,13 @@
         <v>0</v>
       </c>
       <c r="N30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O30">
         <v>0</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -2015,7 +2015,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
         <v>22</v>
@@ -2060,7 +2060,7 @@
         <v>0</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q31">
         <v>0</v>
@@ -2068,7 +2068,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
         <v>22</v>
@@ -2113,7 +2113,7 @@
         <v>0</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q32">
         <v>0</v>
@@ -2121,7 +2121,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
         <v>22</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="P33">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -2174,7 +2174,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
         <v>22</v>
@@ -2219,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="P34">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -2227,7 +2227,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
         <v>22</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="P35">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q35">
         <v>0</v>
@@ -2280,7 +2280,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
         <v>22</v>
@@ -2325,7 +2325,7 @@
         <v>0</v>
       </c>
       <c r="P36">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -2333,7 +2333,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
         <v>22</v>
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="P37">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q37">
         <v>0</v>
@@ -2386,7 +2386,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
         <v>22</v>
@@ -2431,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="P38">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q38">
         <v>0</v>
@@ -2439,7 +2439,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
         <v>22</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="P39">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -2492,10 +2492,10 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C40" t="s">
         <v>18</v>
@@ -2531,13 +2531,13 @@
         <v>0</v>
       </c>
       <c r="N40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O40">
         <v>0</v>
       </c>
       <c r="P40">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q40">
         <v>0</v>
@@ -2545,7 +2545,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
         <v>23</v>
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="P41">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q41">
         <v>0</v>
@@ -2598,7 +2598,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s">
         <v>23</v>
@@ -2643,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="P42">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q42">
         <v>0</v>
@@ -2651,7 +2651,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
         <v>23</v>
@@ -2696,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="P43">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q43">
         <v>0</v>
@@ -2704,7 +2704,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
         <v>23</v>
@@ -2749,7 +2749,7 @@
         <v>0</v>
       </c>
       <c r="P44">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q44">
         <v>0</v>
@@ -2757,7 +2757,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45" t="s">
         <v>23</v>
@@ -2802,7 +2802,7 @@
         <v>0</v>
       </c>
       <c r="P45">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45">
         <v>0</v>
@@ -2810,7 +2810,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46" t="s">
         <v>23</v>
@@ -2855,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="P46">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q46">
         <v>0</v>
@@ -2863,7 +2863,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s">
         <v>23</v>
@@ -2908,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="P47">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q47">
         <v>0</v>
@@ -2916,7 +2916,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48" t="s">
         <v>23</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="P48">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q48">
         <v>0</v>
@@ -2969,7 +2969,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49" t="s">
         <v>23</v>
@@ -3014,7 +3014,7 @@
         <v>0</v>
       </c>
       <c r="P49">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q49">
         <v>0</v>
@@ -3022,7 +3022,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50" t="s">
         <v>23</v>
@@ -3067,7 +3067,7 @@
         <v>0</v>
       </c>
       <c r="P50">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -3075,10 +3075,10 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C51" t="s">
         <v>18</v>
@@ -3120,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="P51">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q51">
         <v>0</v>

--- a/cache/cars.xlsx
+++ b/cache/cars.xlsx
@@ -490,13 +490,13 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2">
         <v>1000000</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -505,13 +505,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="K2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>1616433476.512068</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -520,7 +520,7 @@
         <v>18</v>
       </c>
       <c r="O2">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>100</v>

--- a/cache/cars.xlsx
+++ b/cache/cars.xlsx
@@ -496,7 +496,7 @@
         <v>1000000</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2">
         <v>0</v>

--- a/cache/cars.xlsx
+++ b/cache/cars.xlsx
@@ -490,13 +490,13 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2">
         <v>1000000</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -508,10 +508,10 @@
         <v>3600</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1616681819.706879</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -520,7 +520,7 @@
         <v>18</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P2">
         <v>100</v>

--- a/cache/cars.xlsx
+++ b/cache/cars.xlsx
@@ -490,13 +490,13 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2">
         <v>1000000</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -505,13 +505,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>1616681819.706879</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -520,13 +520,13 @@
         <v>18</v>
       </c>
       <c r="O2">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>100</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -579,7 +579,7 @@
         <v>100</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -632,7 +632,7 @@
         <v>100</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -685,7 +685,7 @@
         <v>100</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -738,7 +738,7 @@
         <v>100</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -791,7 +791,7 @@
         <v>100</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -844,7 +844,7 @@
         <v>100</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -897,7 +897,7 @@
         <v>100</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -950,7 +950,7 @@
         <v>100</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1003,7 +1003,7 @@
         <v>100</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1056,7 +1056,7 @@
         <v>100</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1109,7 +1109,7 @@
         <v>100</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1162,7 +1162,7 @@
         <v>100</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1215,7 +1215,7 @@
         <v>100</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1268,7 +1268,7 @@
         <v>100</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1321,7 +1321,7 @@
         <v>100</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1374,7 +1374,7 @@
         <v>100</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1427,7 +1427,7 @@
         <v>100</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1480,7 +1480,7 @@
         <v>100</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1533,7 +1533,7 @@
         <v>100</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1586,7 +1586,7 @@
         <v>100</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1639,7 +1639,7 @@
         <v>100</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1692,7 +1692,7 @@
         <v>100</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1745,7 +1745,7 @@
         <v>100</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1798,7 +1798,7 @@
         <v>100</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1851,7 +1851,7 @@
         <v>100</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1904,7 +1904,7 @@
         <v>100</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1957,7 +1957,7 @@
         <v>100</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2010,7 +2010,7 @@
         <v>100</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2063,7 +2063,7 @@
         <v>100</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2116,7 +2116,7 @@
         <v>100</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2169,7 +2169,7 @@
         <v>100</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2222,7 +2222,7 @@
         <v>100</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2275,7 +2275,7 @@
         <v>100</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2328,7 +2328,7 @@
         <v>100</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2381,7 +2381,7 @@
         <v>100</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2434,7 +2434,7 @@
         <v>100</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2487,7 +2487,7 @@
         <v>100</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2540,7 +2540,7 @@
         <v>100</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2593,7 +2593,7 @@
         <v>100</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2646,7 +2646,7 @@
         <v>100</v>
       </c>
       <c r="Q42">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2699,7 +2699,7 @@
         <v>100</v>
       </c>
       <c r="Q43">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2752,7 +2752,7 @@
         <v>100</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2805,7 +2805,7 @@
         <v>100</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2858,7 +2858,7 @@
         <v>100</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2911,7 +2911,7 @@
         <v>100</v>
       </c>
       <c r="Q47">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -2964,7 +2964,7 @@
         <v>100</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3017,7 +3017,7 @@
         <v>100</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3070,7 +3070,7 @@
         <v>100</v>
       </c>
       <c r="Q50">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3123,7 +3123,7 @@
         <v>100</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/cache/cars.xlsx
+++ b/cache/cars.xlsx
@@ -496,7 +496,7 @@
         <v>1000000</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -505,7 +505,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -814,7 +814,7 @@
         <v>1000000</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -3075,7 +3075,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="B51" t="s">
         <v>17</v>

--- a/cache/cars.xlsx
+++ b/cache/cars.xlsx
@@ -2510,7 +2510,7 @@
         <v>1000000</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -2519,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="K40">
         <v>0</v>

--- a/cache/cars.xlsx
+++ b/cache/cars.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -419,9 +419,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
@@ -3075,7 +3077,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="B51" t="s">
         <v>17</v>

--- a/cache/cars.xlsx
+++ b/cache/cars.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -419,11 +419,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
@@ -492,13 +490,13 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2">
         <v>1000000</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -507,13 +505,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>550</v>
+        <v>1750</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1617346417.757543</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -522,7 +520,7 @@
         <v>18</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P2">
         <v>100</v>
@@ -657,7 +655,7 @@
         <v>1000000</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -666,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -810,13 +808,13 @@
         <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F8">
         <v>1000000</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -825,13 +823,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>750</v>
+        <v>1150</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1617349757.270252</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -840,7 +838,7 @@
         <v>19</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="P8">
         <v>100</v>
@@ -1982,7 +1980,7 @@
         <v>1000000</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -1991,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -2512,7 +2510,7 @@
         <v>1000000</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -2521,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>550</v>
+        <v>950</v>
       </c>
       <c r="K40">
         <v>0</v>

--- a/cache/cars.xlsx
+++ b/cache/cars.xlsx
@@ -543,13 +543,13 @@
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3">
         <v>1000000</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -561,10 +561,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1617377605.655387</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -573,7 +573,7 @@
         <v>18</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="P3">
         <v>100</v>
@@ -808,7 +808,7 @@
         <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F8">
         <v>1000000</v>
@@ -823,13 +823,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>1150</v>
+        <v>2350</v>
       </c>
       <c r="K8">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>1617349757.270252</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>19</v>
       </c>
       <c r="O8">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>100</v>

--- a/cache/cars.xlsx
+++ b/cache/cars.xlsx
@@ -490,13 +490,13 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2">
         <v>1000000</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -505,13 +505,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>1750</v>
+        <v>3750</v>
       </c>
       <c r="K2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>1617346417.757543</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -520,7 +520,7 @@
         <v>18</v>
       </c>
       <c r="O2">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>100</v>
@@ -543,7 +543,7 @@
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3">
         <v>1000000</v>
@@ -558,13 +558,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="K3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>1617377605.655387</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -573,7 +573,7 @@
         <v>18</v>
       </c>
       <c r="O3">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>100</v>

--- a/cache/cars.xlsx
+++ b/cache/cars.xlsx
@@ -496,7 +496,7 @@
         <v>1000000</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -505,7 +505,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>3750</v>
+        <v>4300</v>
       </c>
       <c r="K2">
         <v>0</v>

--- a/cache/cars.xlsx
+++ b/cache/cars.xlsx
@@ -490,13 +490,13 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2">
         <v>1000000</v>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -505,13 +505,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4300</v>
+        <v>3600</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1616681819.706879</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -520,13 +520,13 @@
         <v>18</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P2">
         <v>100</v>
       </c>
       <c r="Q2">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -549,7 +549,7 @@
         <v>1000000</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -558,7 +558,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -579,7 +579,7 @@
         <v>100</v>
       </c>
       <c r="Q3">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -632,7 +632,7 @@
         <v>100</v>
       </c>
       <c r="Q4">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -655,7 +655,7 @@
         <v>1000000</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -685,7 +685,7 @@
         <v>100</v>
       </c>
       <c r="Q5">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -738,7 +738,7 @@
         <v>100</v>
       </c>
       <c r="Q6">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -791,7 +791,7 @@
         <v>100</v>
       </c>
       <c r="Q7">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -814,7 +814,7 @@
         <v>1000000</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>2350</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>100</v>
       </c>
       <c r="Q8">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -897,7 +897,7 @@
         <v>100</v>
       </c>
       <c r="Q9">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -950,7 +950,7 @@
         <v>100</v>
       </c>
       <c r="Q10">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1003,7 +1003,7 @@
         <v>100</v>
       </c>
       <c r="Q11">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1056,7 +1056,7 @@
         <v>100</v>
       </c>
       <c r="Q12">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1109,7 +1109,7 @@
         <v>100</v>
       </c>
       <c r="Q13">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1162,7 +1162,7 @@
         <v>100</v>
       </c>
       <c r="Q14">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1215,7 +1215,7 @@
         <v>100</v>
       </c>
       <c r="Q15">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1268,7 +1268,7 @@
         <v>100</v>
       </c>
       <c r="Q16">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1321,7 +1321,7 @@
         <v>100</v>
       </c>
       <c r="Q17">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1374,7 +1374,7 @@
         <v>100</v>
       </c>
       <c r="Q18">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1427,7 +1427,7 @@
         <v>100</v>
       </c>
       <c r="Q19">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1480,7 +1480,7 @@
         <v>100</v>
       </c>
       <c r="Q20">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1533,7 +1533,7 @@
         <v>100</v>
       </c>
       <c r="Q21">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1586,7 +1586,7 @@
         <v>100</v>
       </c>
       <c r="Q22">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1639,7 +1639,7 @@
         <v>100</v>
       </c>
       <c r="Q23">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1692,7 +1692,7 @@
         <v>100</v>
       </c>
       <c r="Q24">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1745,7 +1745,7 @@
         <v>100</v>
       </c>
       <c r="Q25">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1798,7 +1798,7 @@
         <v>100</v>
       </c>
       <c r="Q26">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1851,7 +1851,7 @@
         <v>100</v>
       </c>
       <c r="Q27">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1904,7 +1904,7 @@
         <v>100</v>
       </c>
       <c r="Q28">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1957,7 +1957,7 @@
         <v>100</v>
       </c>
       <c r="Q29">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1980,7 +1980,7 @@
         <v>1000000</v>
       </c>
       <c r="G30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -2010,7 +2010,7 @@
         <v>100</v>
       </c>
       <c r="Q30">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2063,7 +2063,7 @@
         <v>100</v>
       </c>
       <c r="Q31">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2116,7 +2116,7 @@
         <v>100</v>
       </c>
       <c r="Q32">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2169,7 +2169,7 @@
         <v>100</v>
       </c>
       <c r="Q33">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2222,7 +2222,7 @@
         <v>100</v>
       </c>
       <c r="Q34">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2275,7 +2275,7 @@
         <v>100</v>
       </c>
       <c r="Q35">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2328,7 +2328,7 @@
         <v>100</v>
       </c>
       <c r="Q36">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2381,7 +2381,7 @@
         <v>100</v>
       </c>
       <c r="Q37">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2434,7 +2434,7 @@
         <v>100</v>
       </c>
       <c r="Q38">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2487,7 +2487,7 @@
         <v>100</v>
       </c>
       <c r="Q39">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2510,7 +2510,7 @@
         <v>1000000</v>
       </c>
       <c r="G40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -2519,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>950</v>
+        <v>0</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -2540,7 +2540,7 @@
         <v>100</v>
       </c>
       <c r="Q40">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2593,7 +2593,7 @@
         <v>100</v>
       </c>
       <c r="Q41">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2646,7 +2646,7 @@
         <v>100</v>
       </c>
       <c r="Q42">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2699,7 +2699,7 @@
         <v>100</v>
       </c>
       <c r="Q43">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2752,7 +2752,7 @@
         <v>100</v>
       </c>
       <c r="Q44">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2805,7 +2805,7 @@
         <v>100</v>
       </c>
       <c r="Q45">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2858,7 +2858,7 @@
         <v>100</v>
       </c>
       <c r="Q46">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2911,7 +2911,7 @@
         <v>100</v>
       </c>
       <c r="Q47">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -2964,7 +2964,7 @@
         <v>100</v>
       </c>
       <c r="Q48">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3017,7 +3017,7 @@
         <v>100</v>
       </c>
       <c r="Q49">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3070,7 +3070,7 @@
         <v>100</v>
       </c>
       <c r="Q50">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3123,7 +3123,7 @@
         <v>100</v>
       </c>
       <c r="Q51">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/cache/cars.xlsx
+++ b/cache/cars.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="25">
   <si>
     <t>id</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>Mahindra Bolero</t>
+  </si>
+  <si>
+    <t>mercedes</t>
   </si>
 </sst>
 </file>
@@ -417,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -493,7 +496,7 @@
         <v>18</v>
       </c>
       <c r="F2">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -546,7 +549,7 @@
         <v>19</v>
       </c>
       <c r="F3">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -599,7 +602,7 @@
         <v>19</v>
       </c>
       <c r="F4">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -652,7 +655,7 @@
         <v>19</v>
       </c>
       <c r="F5">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -705,7 +708,7 @@
         <v>19</v>
       </c>
       <c r="F6">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +761,7 @@
         <v>19</v>
       </c>
       <c r="F7">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -811,7 +814,7 @@
         <v>19</v>
       </c>
       <c r="F8">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -864,7 +867,7 @@
         <v>19</v>
       </c>
       <c r="F9">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -917,7 +920,7 @@
         <v>19</v>
       </c>
       <c r="F10">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -970,7 +973,7 @@
         <v>19</v>
       </c>
       <c r="F11">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1023,7 +1026,7 @@
         <v>19</v>
       </c>
       <c r="F12">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1076,7 +1079,7 @@
         <v>19</v>
       </c>
       <c r="F13">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1129,7 +1132,7 @@
         <v>19</v>
       </c>
       <c r="F14">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1182,7 +1185,7 @@
         <v>19</v>
       </c>
       <c r="F15">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1235,7 +1238,7 @@
         <v>19</v>
       </c>
       <c r="F16">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1288,7 +1291,7 @@
         <v>19</v>
       </c>
       <c r="F17">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1341,7 +1344,7 @@
         <v>19</v>
       </c>
       <c r="F18">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1394,7 +1397,7 @@
         <v>19</v>
       </c>
       <c r="F19">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1447,7 +1450,7 @@
         <v>19</v>
       </c>
       <c r="F20">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1500,7 +1503,7 @@
         <v>19</v>
       </c>
       <c r="F21">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1553,7 +1556,7 @@
         <v>19</v>
       </c>
       <c r="F22">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1606,7 +1609,7 @@
         <v>19</v>
       </c>
       <c r="F23">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1659,7 +1662,7 @@
         <v>19</v>
       </c>
       <c r="F24">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1712,7 +1715,7 @@
         <v>19</v>
       </c>
       <c r="F25">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1765,7 +1768,7 @@
         <v>19</v>
       </c>
       <c r="F26">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1818,7 +1821,7 @@
         <v>19</v>
       </c>
       <c r="F27">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1871,7 +1874,7 @@
         <v>19</v>
       </c>
       <c r="F28">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1924,7 +1927,7 @@
         <v>19</v>
       </c>
       <c r="F29">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1977,7 +1980,7 @@
         <v>19</v>
       </c>
       <c r="F30">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -2030,7 +2033,7 @@
         <v>19</v>
       </c>
       <c r="F31">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -2083,7 +2086,7 @@
         <v>19</v>
       </c>
       <c r="F32">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -2136,7 +2139,7 @@
         <v>19</v>
       </c>
       <c r="F33">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -2189,7 +2192,7 @@
         <v>19</v>
       </c>
       <c r="F34">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -2242,7 +2245,7 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -2295,7 +2298,7 @@
         <v>19</v>
       </c>
       <c r="F36">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -2348,7 +2351,7 @@
         <v>19</v>
       </c>
       <c r="F37">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2401,7 +2404,7 @@
         <v>19</v>
       </c>
       <c r="F38">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -2454,7 +2457,7 @@
         <v>19</v>
       </c>
       <c r="F39">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -2507,7 +2510,7 @@
         <v>19</v>
       </c>
       <c r="F40">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -2560,7 +2563,7 @@
         <v>19</v>
       </c>
       <c r="F41">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -2613,7 +2616,7 @@
         <v>19</v>
       </c>
       <c r="F42">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -2666,7 +2669,7 @@
         <v>19</v>
       </c>
       <c r="F43">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -2719,7 +2722,7 @@
         <v>19</v>
       </c>
       <c r="F44">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -2772,7 +2775,7 @@
         <v>19</v>
       </c>
       <c r="F45">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -2825,7 +2828,7 @@
         <v>19</v>
       </c>
       <c r="F46">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -2878,7 +2881,7 @@
         <v>19</v>
       </c>
       <c r="F47">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -2931,7 +2934,7 @@
         <v>19</v>
       </c>
       <c r="F48">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -2984,7 +2987,7 @@
         <v>19</v>
       </c>
       <c r="F49">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -3037,7 +3040,7 @@
         <v>19</v>
       </c>
       <c r="F50">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -3090,7 +3093,7 @@
         <v>19</v>
       </c>
       <c r="F51">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -3124,6 +3127,59 @@
       </c>
       <c r="Q51">
         <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" t="s">
+        <v>19</v>
+      </c>
+      <c r="F52">
+        <v>10000000</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52" t="s">
+        <v>19</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>5000</v>
+      </c>
+      <c r="Q52">
+        <v>6000</v>
       </c>
     </row>
   </sheetData>

--- a/cache/cars.xlsx
+++ b/cache/cars.xlsx
@@ -496,16 +496,16 @@
         <v>1000000</v>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="J2">
-        <v>4300</v>
+        <v>4850</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -549,16 +549,16 @@
         <v>1000000</v>
       </c>
       <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
         <v>1</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
       <c r="I3">
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="J3">
-        <v>650</v>
+        <v>1200</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -602,16 +602,16 @@
         <v>1000000</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="K4">
         <v>0</v>

--- a/cache/cars.xlsx
+++ b/cache/cars.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -419,9 +419,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.1796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
@@ -493,7 +514,7 @@
         <v>19</v>
       </c>
       <c r="F2">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G2">
         <v>9</v>
@@ -546,7 +567,7 @@
         <v>19</v>
       </c>
       <c r="F3">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -599,7 +620,7 @@
         <v>19</v>
       </c>
       <c r="F4">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -652,7 +673,7 @@
         <v>19</v>
       </c>
       <c r="F5">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -705,7 +726,7 @@
         <v>19</v>
       </c>
       <c r="F6">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +779,7 @@
         <v>19</v>
       </c>
       <c r="F7">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -811,7 +832,7 @@
         <v>19</v>
       </c>
       <c r="F8">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -864,7 +885,7 @@
         <v>19</v>
       </c>
       <c r="F9">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -917,7 +938,7 @@
         <v>19</v>
       </c>
       <c r="F10">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -970,7 +991,7 @@
         <v>19</v>
       </c>
       <c r="F11">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1023,7 +1044,7 @@
         <v>19</v>
       </c>
       <c r="F12">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1076,7 +1097,7 @@
         <v>19</v>
       </c>
       <c r="F13">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1129,7 +1150,7 @@
         <v>19</v>
       </c>
       <c r="F14">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1182,7 +1203,7 @@
         <v>19</v>
       </c>
       <c r="F15">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1235,7 +1256,7 @@
         <v>19</v>
       </c>
       <c r="F16">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1288,7 +1309,7 @@
         <v>19</v>
       </c>
       <c r="F17">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1341,7 +1362,7 @@
         <v>19</v>
       </c>
       <c r="F18">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1394,7 +1415,7 @@
         <v>19</v>
       </c>
       <c r="F19">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1447,7 +1468,7 @@
         <v>19</v>
       </c>
       <c r="F20">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1500,7 +1521,7 @@
         <v>19</v>
       </c>
       <c r="F21">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1553,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="F22">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1606,7 +1627,7 @@
         <v>19</v>
       </c>
       <c r="F23">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1659,7 +1680,7 @@
         <v>19</v>
       </c>
       <c r="F24">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1712,7 +1733,7 @@
         <v>19</v>
       </c>
       <c r="F25">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1765,7 +1786,7 @@
         <v>19</v>
       </c>
       <c r="F26">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1818,7 +1839,7 @@
         <v>19</v>
       </c>
       <c r="F27">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1871,7 +1892,7 @@
         <v>19</v>
       </c>
       <c r="F28">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1924,7 +1945,7 @@
         <v>19</v>
       </c>
       <c r="F29">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1977,7 +1998,7 @@
         <v>19</v>
       </c>
       <c r="F30">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -2030,7 +2051,7 @@
         <v>19</v>
       </c>
       <c r="F31">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -2083,7 +2104,7 @@
         <v>19</v>
       </c>
       <c r="F32">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -2136,7 +2157,7 @@
         <v>19</v>
       </c>
       <c r="F33">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -2189,7 +2210,7 @@
         <v>19</v>
       </c>
       <c r="F34">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -2242,7 +2263,7 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -2295,7 +2316,7 @@
         <v>19</v>
       </c>
       <c r="F36">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -2348,7 +2369,7 @@
         <v>19</v>
       </c>
       <c r="F37">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2401,7 +2422,7 @@
         <v>19</v>
       </c>
       <c r="F38">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -2454,7 +2475,7 @@
         <v>19</v>
       </c>
       <c r="F39">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -2507,19 +2528,19 @@
         <v>19</v>
       </c>
       <c r="F40">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="J40">
-        <v>950</v>
+        <v>1350</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -2560,7 +2581,7 @@
         <v>19</v>
       </c>
       <c r="F41">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -2613,7 +2634,7 @@
         <v>19</v>
       </c>
       <c r="F42">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -2666,7 +2687,7 @@
         <v>19</v>
       </c>
       <c r="F43">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -2719,7 +2740,7 @@
         <v>19</v>
       </c>
       <c r="F44">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -2772,7 +2793,7 @@
         <v>19</v>
       </c>
       <c r="F45">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -2825,7 +2846,7 @@
         <v>19</v>
       </c>
       <c r="F46">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -2878,7 +2899,7 @@
         <v>19</v>
       </c>
       <c r="F47">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -2931,7 +2952,7 @@
         <v>19</v>
       </c>
       <c r="F48">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -2984,7 +3005,7 @@
         <v>19</v>
       </c>
       <c r="F49">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -3037,7 +3058,7 @@
         <v>19</v>
       </c>
       <c r="F50">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -3090,7 +3111,7 @@
         <v>19</v>
       </c>
       <c r="F51">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G51">
         <v>0</v>

--- a/cache/cars.xlsx
+++ b/cache/cars.xlsx
@@ -420,7 +420,7 @@
   <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/cache/cars.xlsx
+++ b/cache/cars.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -419,30 +419,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="2.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.1796875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
@@ -508,16 +487,16 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2">
         <v>100000</v>
       </c>
       <c r="G2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -529,10 +508,10 @@
         <v>4850</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1663262994.833586</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -541,7 +520,7 @@
         <v>18</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="P2">
         <v>100</v>
